--- a/experiment/linear/ex9.1.8/Experimentos_Generador/ex9.1.9(Linear)__M_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/linear/ex9.1.8/Experimentos_Generador/ex9.1.9(Linear)__M_Stationarygenerator_alpha_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -66,52 +66,52 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>2.5 - 2x_1 + y_1 - y_2</t>
-  </si>
-  <si>
-    <t>-2.204419543769237</t>
+    <t>11.3 - 2x_1 + y_1 - y_2</t>
+  </si>
+  <si>
+    <t>-8.8</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.4508014206716149</t>
+    <t>0.79</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>0.13733831908674266</t>
-  </si>
-  <si>
-    <t>-2 + x_1 - 3x_2 + y_2</t>
-  </si>
-  <si>
-    <t>-0.9301416187597544</t>
+    <t>7.6</t>
+  </si>
+  <si>
+    <t>-3.55 + x_1 - 3x_2 + y_2</t>
+  </si>
+  <si>
+    <t>1.5499999999999998</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.22014013961262302</t>
-  </si>
-  <si>
-    <t>0.6912044538535302</t>
-  </si>
-  <si>
-    <t>-2 + x_1 + x_2</t>
-  </si>
-  <si>
-    <t>1.7579091632801132</t>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>-9.56 + x_1 + x_2</t>
+  </si>
+  <si>
+    <t>6.75</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.2577161402299323</t>
-  </si>
-  <si>
-    <t>0.508401552596736</t>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>0.8</t>
   </si>
   <si>
     <t>x_1</t>
@@ -126,40 +126,37 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>2.916744737742059</t>
-  </si>
-  <si>
-    <t>0.841164425538054</t>
-  </si>
-  <si>
-    <t>1.8056768518272297</t>
-  </si>
-  <si>
-    <t>0.6766069201123486</t>
+    <t>6.65</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>3.2</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>3.549198579328385</t>
-  </si>
-  <si>
-    <t>-0.7693387189410081</t>
+    <t>3.21</t>
+  </si>
+  <si>
+    <t>-0.29999999999999993</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>-1.0</t>
+    <t>-4.0</t>
+  </si>
+  <si>
+    <t>13.8</t>
   </si>
   <si>
     <t>-0.5</t>
   </si>
   <si>
-    <t>-0.0</t>
+    <t>-5.2</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -630,10 +627,10 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -650,10 +647,10 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
         <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -691,10 +688,10 @@
         <v>32</v>
       </c>
       <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
         <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -712,17 +709,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -740,27 +737,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -778,7 +775,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/experiment/linear/ex9.1.8/Experimentos_Generador/ex9.1.9(Linear)__M_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/linear/ex9.1.8/Experimentos_Generador/ex9.1.9(Linear)__M_Stationarygenerator_alpha_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -66,52 +66,58 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>11.3 - 2x_1 + y_1 - y_2</t>
-  </si>
-  <si>
-    <t>-8.8</t>
+    <t>2.9999999999999996 - 2x_1 + y_1 - y_2</t>
+  </si>
+  <si>
+    <t>-0.49999999999999956</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.79</t>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>1.7000000000000002</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>-0.9499999999999997 + x_1 - 3x_2 + y_2</t>
+  </si>
+  <si>
+    <t>-1.0500000000000003</t>
+  </si>
+  <si>
+    <t>J_0_LP_v</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>-4.21 + x_1 + x_2</t>
+  </si>
+  <si>
+    <t>1.7999999999999998</t>
+  </si>
+  <si>
+    <t>J_Ne_L0_v</t>
+  </si>
+  <si>
+    <t>0.28</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>7.6</t>
-  </si>
-  <si>
-    <t>-3.55 + x_1 - 3x_2 + y_2</t>
-  </si>
-  <si>
-    <t>1.5499999999999998</t>
-  </si>
-  <si>
-    <t>J_0_LP_v</t>
-  </si>
-  <si>
-    <t>0.09</t>
-  </si>
-  <si>
-    <t>5.2</t>
-  </si>
-  <si>
-    <t>-9.56 + x_1 + x_2</t>
-  </si>
-  <si>
-    <t>6.75</t>
-  </si>
-  <si>
-    <t>J_Ne_L0_v</t>
-  </si>
-  <si>
-    <t>0.54</t>
-  </si>
-  <si>
-    <t>0.8</t>
+    <t>7.5</t>
   </si>
   <si>
     <t>x_1</t>
@@ -126,37 +132,37 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>6.65</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>3.2</t>
+    <t>2.55</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>4.25</t>
+  </si>
+  <si>
+    <t>2.15</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>3.21</t>
-  </si>
-  <si>
-    <t>-0.29999999999999993</t>
+    <t>3.04</t>
+  </si>
+  <si>
+    <t>-0.9400000000000001</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-4.0</t>
-  </si>
-  <si>
-    <t>13.8</t>
-  </si>
-  <si>
-    <t>-0.5</t>
-  </si>
-  <si>
-    <t>-5.2</t>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>-1.0</t>
+  </si>
+  <si>
+    <t>-2.2</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -630,27 +636,27 @@
         <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -668,30 +674,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -709,17 +715,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -737,27 +743,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -775,7 +781,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/experiment/linear/ex9.1.8/Experimentos_Generador/ex9.1.9(Linear)__M_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/linear/ex9.1.8/Experimentos_Generador/ex9.1.9(Linear)__M_Stationarygenerator_alpha_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -66,10 +66,10 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>2.9999999999999996 - 2x_1 + y_1 - y_2</t>
-  </si>
-  <si>
-    <t>-0.49999999999999956</t>
+    <t>4.449999999999999 - 2x_1 + y_1 - y_2</t>
+  </si>
+  <si>
+    <t>-1.9499999999999995</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
@@ -78,46 +78,40 @@
     <t>0.96</t>
   </si>
   <si>
-    <t>1.7000000000000002</t>
-  </si>
-  <si>
-    <t>8.5</t>
-  </si>
-  <si>
-    <t>-0.9499999999999997 + x_1 - 3x_2 + y_2</t>
-  </si>
-  <si>
-    <t>-1.0500000000000003</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>7.800000000000001</t>
+  </si>
+  <si>
+    <t>-1.2499999999999993 + x_1 - 3x_2 + y_2</t>
+  </si>
+  <si>
+    <t>-0.7500000000000007</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>6.1</t>
-  </si>
-  <si>
-    <t>-4.21 + x_1 + x_2</t>
-  </si>
-  <si>
-    <t>1.7999999999999998</t>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>-6.1499999999999995 + x_1 + x_2</t>
+  </si>
+  <si>
+    <t>4.1</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.28</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>7.5</t>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>6.0</t>
   </si>
   <si>
     <t>x_1</t>
@@ -132,16 +126,16 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>2.55</t>
-  </si>
-  <si>
-    <t>1.25</t>
-  </si>
-  <si>
-    <t>4.25</t>
-  </si>
-  <si>
-    <t>2.15</t>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>6.1000000000000005</t>
+  </si>
+  <si>
+    <t>1.55</t>
   </si>
   <si>
     <t>vec_bf</t>
@@ -150,19 +144,22 @@
     <t>3.04</t>
   </si>
   <si>
-    <t>-0.9400000000000001</t>
+    <t>-0.74</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>5.4</t>
+    <t>2.0</t>
   </si>
   <si>
     <t>-1.0</t>
   </si>
   <si>
-    <t>-2.2</t>
+    <t>-0.5</t>
+  </si>
+  <si>
+    <t>-0.0</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -633,30 +630,30 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
         <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
         <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -674,30 +671,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>30</v>
-      </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -715,17 +712,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -743,27 +740,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -781,7 +778,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:1">
